--- a/medicine/Mort/Cimetière_de_Saint-Paul_à_Tartu/Cimetière_de_Saint-Paul_à_Tartu.xlsx
+++ b/medicine/Mort/Cimetière_de_Saint-Paul_à_Tartu/Cimetière_de_Saint-Paul_à_Tartu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Paul_%C3%A0_Tartu</t>
+          <t>Cimetière_de_Saint-Paul_à_Tartu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Saint-Paul (en estonien : Pauluse kalmistu) ou cimetière de Ropka-Tamme (en estonien : Ropka-Tamme kalmistu) est un cimetière de Tartu en Estonie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Paul_%C3%A0_Tartu</t>
+          <t>Cimetière_de_Saint-Paul_à_Tartu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est accessible par la rue Võru tänav et la rue Kabeli tänav. 
 Le cimetière a été consacré en 1913.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Paul_%C3%A0_Tartu</t>
+          <t>Cimetière_de_Saint-Paul_à_Tartu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Inhumations notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>August Ein
 Aleksander Elango
